--- a/public/assets/exceldocument/Sales-Invoice.xlsx
+++ b/public/assets/exceldocument/Sales-Invoice.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\17042024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31158F7A-E566-4435-A911-052726C784F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{2B2D93F2-E1F5-4DCD-87DD-72A40507D859}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Add Multi GSTN Registration type or Tally Company State name </t>
         </r>
@@ -48,20 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="124">
   <si>
     <t>Invoice Date</t>
   </si>
   <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>Bill Ref No</t>
+  </si>
+  <si>
     <t>Voucher Type</t>
   </si>
   <si>
-    <t>Invoice No</t>
-  </si>
-  <si>
-    <t>Bill Ref No</t>
-  </si>
-  <si>
     <t>Party Name</t>
   </si>
   <si>
@@ -92,349 +80,353 @@
     <t>Company State/ Registration Type</t>
   </si>
   <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Description1</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>UOM</t>
+  </si>
+  <si>
+    <t>Item Rate</t>
+  </si>
+  <si>
+    <t>GST Rate</t>
+  </si>
+  <si>
+    <t>TAXABLE</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>IGST</t>
+  </si>
+  <si>
+    <t>CESS</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
+  </si>
+  <si>
+    <t>INVOICE AMOUNT</t>
+  </si>
+  <si>
+    <t>Narration</t>
+  </si>
+  <si>
     <t>SBB/22-23/002648</t>
   </si>
   <si>
+    <t>BA02525/22/00097</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>AVITUX SOLUTIONS LLP</t>
+  </si>
+  <si>
+    <t>504 5TH FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I SQUARE NR SHUKAN MALL CROSS ROAD</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z3</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride145852</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>GOODS SOLD</t>
+  </si>
+  <si>
     <t>SBB/22-23/002649</t>
   </si>
   <si>
+    <t>M.03366/22/00028</t>
+  </si>
+  <si>
+    <t>INDIAN INSTITUTE OF MANAGEMENT AHMEDABAD</t>
+  </si>
+  <si>
+    <t>Vastrapur Ahmedabad  380015 India</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z4</t>
+  </si>
+  <si>
+    <t>JOB WORK</t>
+  </si>
+  <si>
+    <t>JOB WORK145853</t>
+  </si>
+  <si>
     <t>SBB/22-23/002650</t>
   </si>
   <si>
+    <t>L 01296/22/00031</t>
+  </si>
+  <si>
+    <t>THE REGISTRAR,SARDAR PATEL UNIVERSITY</t>
+  </si>
+  <si>
+    <t>DEPARTMENT OF BUSINESS STUDIES SARDAR PATEL UNIVERSITYNEAR  388120 India</t>
+  </si>
+  <si>
+    <t>SHAHID CHOWK VALLABH VIDYANAGAR Anand Gujarat</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z5</t>
+  </si>
+  <si>
+    <t>Sodium Sulphate</t>
+  </si>
+  <si>
+    <t>Sodium Sulphate145854</t>
+  </si>
+  <si>
+    <t>Directorate of Enforcement</t>
+  </si>
+  <si>
+    <t>11th Floor Satya One</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Opp. Manav Mandir Drive In Road</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z6</t>
+  </si>
+  <si>
+    <t>Medium Free Flow Salt</t>
+  </si>
+  <si>
+    <t>Medium Free Flow Salt145855</t>
+  </si>
+  <si>
     <t>SBB/22-23/002651</t>
   </si>
   <si>
+    <t>RI02504/22/00026</t>
+  </si>
+  <si>
+    <t>DR BABASAHEB AMBEDKAR OPEN UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Jyotirmay Parisar S.G.Highway</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chharodi Ahmedabad Ahmedabad Gujarat 382481 India</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alluminium Chloride </t>
+  </si>
+  <si>
+    <t>Alluminium Chloride 145856</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sodium Thyo Sulphate </t>
+  </si>
+  <si>
+    <t>Sodium Thyo Sulphate 145857</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z9</t>
+  </si>
+  <si>
+    <t>Sodium Sulphate145858</t>
+  </si>
+  <si>
     <t>SBB/22-23/002652</t>
   </si>
   <si>
+    <t>SU03466/22/00012</t>
+  </si>
+  <si>
+    <t>OAK TRADELINK</t>
+  </si>
+  <si>
+    <t>CIRCLE OFFICE 6TH FLOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GUJARAT BHAVAN NR. M.J. LIBRARY</t>
+  </si>
+  <si>
+    <t>24ABPFA4267K1Z1</t>
+  </si>
+  <si>
+    <t>HP i5 DESKTOP WITH 21.5" MONITOR</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
     <t>SBB/22-23/002653</t>
   </si>
   <si>
-    <t>AVITUX SOLUTIONS LLP</t>
-  </si>
-  <si>
-    <t>INDIAN INSTITUTE OF MANAGEMENT AHMEDABAD</t>
-  </si>
-  <si>
-    <t>THE REGISTRAR,SARDAR PATEL UNIVERSITY</t>
-  </si>
-  <si>
-    <t>Directorate of Enforcement</t>
-  </si>
-  <si>
-    <t>DR BABASAHEB AMBEDKAR OPEN UNIVERSITY</t>
-  </si>
-  <si>
-    <t>OAK TRADELINK</t>
+    <t>YA02712/22/00075</t>
   </si>
   <si>
     <t>Indian Space Research Organization</t>
   </si>
   <si>
+    <t>Room No. 718 7th Floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aaykar Bhavan Nr. Sachin Tower</t>
+  </si>
+  <si>
+    <t>Other Supporting Accesories</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>Accessories Cable, Cord etc</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>SBB/22-23/002654</t>
+  </si>
+  <si>
     <t>INFRASCOM SOLUTIONS PRIVATE LIMITED</t>
   </si>
   <si>
+    <t>PDPU ROAD RAYSAN</t>
+  </si>
+  <si>
+    <t>Video Conferencing System</t>
+  </si>
+  <si>
+    <t>SBB/22-23/002655</t>
+  </si>
+  <si>
+    <t>SU03466/22/00013</t>
+  </si>
+  <si>
     <t>JANKI  CORP LTD.</t>
   </si>
   <si>
+    <t xml:space="preserve">DEDHROTA BRANCH (08433), </t>
+  </si>
+  <si>
+    <t>DEDHROTA</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>SBB/22-23/002656</t>
+  </si>
+  <si>
     <t>VRPRIME TRADERS</t>
   </si>
   <si>
+    <t xml:space="preserve">HATHARWA BRANCH ( 09219), </t>
+  </si>
+  <si>
+    <t>HATHARWA</t>
+  </si>
+  <si>
+    <t>Installation Charges</t>
+  </si>
+  <si>
+    <t>SBB/22-23/002657</t>
+  </si>
+  <si>
+    <t>SH01989/22/00137</t>
+  </si>
+  <si>
     <t>J S ENTERPRISE</t>
   </si>
   <si>
+    <t>KAMLI</t>
+  </si>
+  <si>
+    <t>UNJHA</t>
+  </si>
+  <si>
+    <t>Unregistered/Consumer</t>
+  </si>
+  <si>
+    <t>SCANNER</t>
+  </si>
+  <si>
+    <t>SBB/22-23/002658</t>
+  </si>
+  <si>
     <t>VANYA INDUSTRIES</t>
   </si>
   <si>
-    <t>SBB/22-23/002654</t>
-  </si>
-  <si>
-    <t>SBB/22-23/002655</t>
-  </si>
-  <si>
-    <t>SBB/22-23/002656</t>
-  </si>
-  <si>
-    <t>SBB/22-23/002657</t>
-  </si>
-  <si>
-    <t>SBB/22-23/002658</t>
-  </si>
-  <si>
-    <t>BA02525/22/00097</t>
-  </si>
-  <si>
-    <t>M.03366/22/00028</t>
-  </si>
-  <si>
-    <t>L 01296/22/00031</t>
-  </si>
-  <si>
-    <t>RI02504/22/00026</t>
-  </si>
-  <si>
-    <t>SU03466/22/00012</t>
-  </si>
-  <si>
-    <t>YA02712/22/00075</t>
-  </si>
-  <si>
-    <t>SU03466/22/00013</t>
-  </si>
-  <si>
-    <t>SH01989/22/00137</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>504 5TH FLOOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I SQUARE NR SHUKAN MALL CROSS ROAD</t>
-  </si>
-  <si>
-    <t>Vastrapur Ahmedabad  380015 India</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DEPARTMENT OF BUSINESS STUDIES SARDAR PATEL UNIVERSITYNEAR  388120 India</t>
-  </si>
-  <si>
-    <t>SHAHID CHOWK VALLABH VIDYANAGAR Anand Gujarat</t>
-  </si>
-  <si>
-    <t>11th Floor Satya One</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Opp. Manav Mandir Drive In Road</t>
-  </si>
-  <si>
-    <t>Jyotirmay Parisar S.G.Highway</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chharodi Ahmedabad Ahmedabad Gujarat 382481 India</t>
-  </si>
-  <si>
-    <t>CIRCLE OFFICE 6TH FLOOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GUJARAT BHAVAN NR. M.J. LIBRARY</t>
-  </si>
-  <si>
-    <t>Room No. 718 7th Floor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aaykar Bhavan Nr. Sachin Tower</t>
-  </si>
-  <si>
-    <t>PDPU ROAD RAYSAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEDHROTA BRANCH (08433), </t>
-  </si>
-  <si>
-    <t>DEDHROTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HATHARWA BRANCH ( 09219), </t>
-  </si>
-  <si>
-    <t>HATHARWA</t>
-  </si>
-  <si>
-    <t>KAMLI</t>
-  </si>
-  <si>
-    <t>UNJHA</t>
-  </si>
-  <si>
     <t>KAHODA</t>
   </si>
   <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>24ABPFA4267K1Z3</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>24AAATI1247F1Z4</t>
-  </si>
-  <si>
-    <t>24AAALR0117P2ZY</t>
-  </si>
-  <si>
-    <t>24AHMD00905C1DD</t>
-  </si>
-  <si>
-    <t>24AAACP0165G1ZV</t>
-  </si>
-  <si>
-    <t>24AENPV9192D1ZY</t>
-  </si>
-  <si>
-    <t>24AACCS6704L3Z8</t>
-  </si>
-  <si>
-    <t>08AAACJ3638A1ZZ</t>
-  </si>
-  <si>
-    <t>27KGYPS4630A1ZV</t>
-  </si>
-  <si>
-    <t>Unregistered/Consumer</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Description1</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>Item Rate</t>
-  </si>
-  <si>
-    <t>GST Rate</t>
-  </si>
-  <si>
-    <t>Potassium Chloride</t>
-  </si>
-  <si>
-    <t>JOB WORK</t>
-  </si>
-  <si>
-    <t>Sodium Sulphate</t>
-  </si>
-  <si>
-    <t>Medium Free Flow Salt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alluminium Chloride </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium Thyo Sulphate </t>
-  </si>
-  <si>
-    <t>HP i5 DESKTOP WITH 21.5" MONITOR</t>
-  </si>
-  <si>
-    <t>Other Supporting Accesories</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Accessories Cable, Cord etc</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)</t>
-  </si>
-  <si>
-    <t>Printer</t>
-  </si>
-  <si>
-    <t>Video Conferencing System</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>Installation Charges</t>
-  </si>
-  <si>
-    <t>SCANNER</t>
-  </si>
-  <si>
     <t>CCTV  Camera</t>
-  </si>
-  <si>
-    <t>Potassium Chloride145852</t>
-  </si>
-  <si>
-    <t>JOB WORK145853</t>
-  </si>
-  <si>
-    <t>Sodium Sulphate145854</t>
-  </si>
-  <si>
-    <t>Medium Free Flow Salt145855</t>
-  </si>
-  <si>
-    <t>Alluminium Chloride 145856</t>
-  </si>
-  <si>
-    <t>Sodium Thyo Sulphate 145857</t>
-  </si>
-  <si>
-    <t>Sodium Sulphate145858</t>
-  </si>
-  <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>TAXABLE</t>
-  </si>
-  <si>
-    <t>Narration</t>
-  </si>
-  <si>
-    <t>GOODS SOLD</t>
-  </si>
-  <si>
-    <t>SGST</t>
-  </si>
-  <si>
-    <t>CGST</t>
-  </si>
-  <si>
-    <t>IGST</t>
-  </si>
-  <si>
-    <t>CESS</t>
-  </si>
-  <si>
-    <t>DISCOUNT</t>
-  </si>
-  <si>
-    <t>INVOICE AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,36 +434,366 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -481,43 +803,329 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -566,7 +1174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +1209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -775,181 +1383,176 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="16.4380952380952" customWidth="1"/>
+    <col min="3" max="3" width="12.1047619047619" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.552380952381" customWidth="1"/>
+    <col min="6" max="6" width="23.552380952381" customWidth="1"/>
+    <col min="7" max="8" width="11.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="6.55238095238095" customWidth="1"/>
+    <col min="10" max="10" width="9.33333333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="24.552380952381" customWidth="1"/>
+    <col min="13" max="13" width="17.2190476190476" customWidth="1"/>
+    <col min="14" max="14" width="38" customWidth="1"/>
+    <col min="27" max="27" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:28">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>86</v>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>117</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" s="2">
         <v>45383</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S2">
         <v>25500</v>
@@ -976,57 +1579,57 @@
         <v>30855</v>
       </c>
       <c r="AB2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" s="2">
         <v>45383</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>90</v>
-      </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1056,63 +1659,63 @@
         <v>27510</v>
       </c>
       <c r="AB3" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" s="2">
         <v>45383</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S4">
         <v>1500</v>
@@ -1139,63 +1742,63 @@
         <v>1725</v>
       </c>
       <c r="AB4" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" s="2">
         <v>45383</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S5">
         <v>1500</v>
@@ -1222,63 +1825,63 @@
         <v>1620</v>
       </c>
       <c r="AB5" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" s="2">
         <v>45383</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" t="s">
         <v>71</v>
       </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>93</v>
-      </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S6">
         <v>6000</v>
@@ -1305,63 +1908,63 @@
         <v>7260</v>
       </c>
       <c r="AB6" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" s="2">
         <v>45383</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S7">
         <v>6000</v>
@@ -1388,63 +1991,63 @@
         <v>7860</v>
       </c>
       <c r="AB7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="A8" s="2">
         <v>45383</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" t="s">
         <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="s">
-        <v>113</v>
       </c>
       <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="S8">
         <v>54000</v>
@@ -1471,63 +2074,63 @@
         <v>62100</v>
       </c>
       <c r="AB8" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" s="2">
         <v>45383</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S9">
         <v>25500</v>
@@ -1554,63 +2157,63 @@
         <v>26265</v>
       </c>
       <c r="AB9" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" s="2">
         <v>45383</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="L10" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S10">
         <v>21000</v>
@@ -1637,63 +2240,63 @@
         <v>25410</v>
       </c>
       <c r="AB10" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" s="2">
         <v>45383</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S11">
         <v>1500</v>
@@ -1720,63 +2323,63 @@
         <v>1965</v>
       </c>
       <c r="AB11" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" s="2">
         <v>45383</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N12" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S12">
         <v>1500</v>
@@ -1803,63 +2406,63 @@
         <v>1725</v>
       </c>
       <c r="AB12" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" s="2">
         <v>45383</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L13" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S13">
         <v>6000</v>
@@ -1886,63 +2489,63 @@
         <v>6480</v>
       </c>
       <c r="AB13" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="A14" s="2">
         <v>45383</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S14">
         <v>6000</v>
@@ -1969,63 +2572,63 @@
         <v>7260</v>
       </c>
       <c r="AB14" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28">
       <c r="A15" s="2">
         <v>45383</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S15">
         <v>54000</v>
@@ -2052,60 +2655,60 @@
         <v>70740</v>
       </c>
       <c r="AB15" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28">
       <c r="A16" s="2">
         <v>45383</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M16" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S16">
         <v>25500</v>
@@ -2132,63 +2735,63 @@
         <v>29325</v>
       </c>
       <c r="AB16" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="A17" s="2">
         <v>45383</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="N17" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S17">
         <v>21000</v>
@@ -2212,63 +2815,63 @@
         <v>25410</v>
       </c>
       <c r="AB17" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="A18" s="2">
         <v>45383</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S18">
         <v>1500</v>
@@ -2292,60 +2895,63 @@
         <v>1965</v>
       </c>
       <c r="AB18" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28">
       <c r="A19" s="2">
         <v>45383</v>
       </c>
       <c r="B19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" t="s">
-        <v>71</v>
+      <c r="K19" t="s">
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P19" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S19">
         <v>1500</v>
@@ -2372,60 +2978,63 @@
         <v>1725</v>
       </c>
       <c r="AB19" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28">
       <c r="A20" s="2">
         <v>45383</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="K20" t="s">
+        <v>62</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="O20" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="S20">
         <v>6000</v>
@@ -2452,12 +3061,12 @@
         <v>6480</v>
       </c>
       <c r="AB20" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>